--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Doctorado 2018\MODELOS\GAMS\DETOX BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F97854-AC48-4B77-9753-F807EF1E3481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBF505-8317-4569-92AF-C5296937F9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
   </bookViews>
@@ -22,22 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feuil1 (2)'!$A$1:$K$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Feuil1 (3)'!$A$1:$F$220</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$C$118:$C$138</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$C$139:$C$160</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$161:$C$172</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$83:$C$117</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$D$118:$D$220</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$D$139:$D$220</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$D$161:$D$220</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$D$83:$D$220</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$161:$C$172</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$83:$C$117</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$118:$D$220</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$139:$D$220</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$161:$D$220</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$83:$D$220</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$C$118:$C$138</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$C$139:$C$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9590,6 +9574,11 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -29124,8 +29113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7699A9F-2341-4C32-B267-5F1713B4CF13}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBF505-8317-4569-92AF-C5296937F9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD221C-25EB-48C6-A6F1-75EFDB6DE25D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
   </bookViews>
@@ -4504,9 +4504,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.1283928491989348E-2"/>
-          <c:y val="0.14192599433035358"/>
-          <c:w val="0.77121427618157912"/>
-          <c:h val="0.69966028860950613"/>
+          <c:y val="0.16441054018855861"/>
+          <c:w val="0.74377279111297534"/>
+          <c:h val="0.67717574275130099"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -19474,13 +19474,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
@@ -19852,7 +19852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479CB694-5EFC-4769-B19F-BC6AA16ADAF6}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C178" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -24483,7 +24483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F51B006-BA29-4547-B4FD-AAEF162940EF}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="C100" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -29113,7 +29113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7699A9F-2341-4C32-B267-5F1713B4CF13}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -29341,7 +29341,7 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:B220"/>

--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94133A43-723B-46BB-9E38-3EC17A40C633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140BB59-233E-41C1-ABA0-4FF3A6ED7AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Feuil1 (2)'!$A$1:$K$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Feuil1 (3)'!$A$1:$F$220</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feuil1 (4)'!$A$1:$K$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feuil1 (4)'!$A$1:$K$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20620,13 +20620,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32071F3A-A3AA-4E75-B884-8526B8F67CCF}">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A100" sqref="A100:XFD100"/>
+      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21713,339 +21713,304 @@
       <c r="B103">
         <v>195.4</v>
       </c>
+      <c r="E103" s="12">
+        <v>727.9</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>155</v>
-      </c>
-      <c r="E104" s="12">
-        <v>727.9</v>
+      <c r="A104">
+        <v>159</v>
+      </c>
+      <c r="C104">
+        <v>219.56</v>
+      </c>
+      <c r="D104">
+        <v>147.63</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>159</v>
-      </c>
-      <c r="C105">
-        <v>219.56</v>
+        <v>161</v>
+      </c>
+      <c r="B105">
+        <v>169.5</v>
+      </c>
+      <c r="E105" s="14">
+        <v>352.9</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>159</v>
-      </c>
-      <c r="D106">
-        <v>147.63</v>
+        <v>162</v>
+      </c>
+      <c r="K106">
+        <v>85.1</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>161</v>
-      </c>
-      <c r="B107">
-        <v>169.5</v>
+        <v>165</v>
+      </c>
+      <c r="C107">
+        <v>308.56</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>161</v>
-      </c>
-      <c r="E108" s="14">
-        <v>352.9</v>
+      <c r="A108">
+        <v>166</v>
+      </c>
+      <c r="D108">
+        <v>93.935000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>162</v>
+      <c r="A109" s="6">
+        <v>168</v>
+      </c>
+      <c r="E109" s="12">
+        <v>377.1</v>
       </c>
       <c r="K109">
-        <v>85.1</v>
+        <v>223.2</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>165</v>
-      </c>
-      <c r="C110">
-        <v>308.56</v>
+        <v>170</v>
+      </c>
+      <c r="B110">
+        <v>185.1</v>
+      </c>
+      <c r="D110">
+        <v>143.25200000000001</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>166</v>
-      </c>
-      <c r="D111">
-        <v>93.935000000000002</v>
+        <v>172</v>
+      </c>
+      <c r="C111">
+        <v>65.05</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>168</v>
-      </c>
-      <c r="E112" s="12">
-        <v>377.1</v>
+      <c r="A112">
+        <v>175</v>
+      </c>
+      <c r="B112">
+        <v>264.2</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>168</v>
-      </c>
-      <c r="K113">
-        <v>223.2</v>
+      <c r="A113" s="6">
+        <v>176</v>
+      </c>
+      <c r="E113" s="14">
+        <v>260.5</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>170</v>
-      </c>
-      <c r="B114">
-        <v>185.1</v>
+        <v>177</v>
+      </c>
+      <c r="K114">
+        <v>94.4</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D115">
-        <v>143.25200000000001</v>
+        <v>133.36500000000001</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>172</v>
-      </c>
-      <c r="C116">
-        <v>65.05</v>
+      <c r="A116" s="6">
+        <v>182</v>
+      </c>
+      <c r="E116" s="17">
+        <v>276.5</v>
+      </c>
+      <c r="K116">
+        <v>189.1</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B117">
-        <v>264.2</v>
+        <v>259.7</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>176</v>
-      </c>
-      <c r="E118" s="14">
-        <v>260.5</v>
+      <c r="A118">
+        <v>188</v>
+      </c>
+      <c r="D118">
+        <v>87.215999999999994</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>177</v>
-      </c>
-      <c r="K119">
-        <v>94.4</v>
+        <v>189</v>
+      </c>
+      <c r="B119">
+        <v>208.6</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>179</v>
-      </c>
-      <c r="D120">
-        <v>133.36500000000001</v>
+      <c r="A120" s="6">
+        <v>191</v>
+      </c>
+      <c r="E120" s="18">
+        <v>224.7</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>182</v>
-      </c>
-      <c r="E121" s="17">
-        <v>276.5</v>
+      <c r="A121">
+        <v>193</v>
+      </c>
+      <c r="D121">
+        <v>54.890999999999998</v>
+      </c>
+      <c r="K121">
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>182</v>
-      </c>
-      <c r="K122">
-        <v>189.1</v>
+      <c r="A122" s="6">
+        <v>196</v>
+      </c>
+      <c r="E122" s="17">
+        <v>348.1</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>186</v>
-      </c>
-      <c r="B123">
-        <v>259.7</v>
+        <v>196</v>
+      </c>
+      <c r="K123">
+        <v>108.7</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>188</v>
-      </c>
-      <c r="D124">
-        <v>87.215999999999994</v>
+        <v>197</v>
+      </c>
+      <c r="B124">
+        <v>97.6</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B125">
-        <v>208.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>191</v>
-      </c>
-      <c r="E126" s="18">
-        <v>224.7</v>
+      <c r="A126">
+        <v>204</v>
+      </c>
+      <c r="K126">
+        <v>75.599999999999994</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>193</v>
-      </c>
-      <c r="D127">
-        <v>54.890999999999998</v>
+      <c r="A127" s="6">
+        <v>207</v>
+      </c>
+      <c r="E127" s="18">
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>193</v>
-      </c>
-      <c r="K128">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>196</v>
-      </c>
-      <c r="E129" s="17">
-        <v>348.1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>210</v>
+      </c>
+      <c r="E128" s="17">
+        <v>255.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>211</v>
+      </c>
+      <c r="B129">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>196</v>
-      </c>
-      <c r="K130">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>197</v>
-      </c>
-      <c r="B131">
-        <v>97.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>203</v>
-      </c>
-      <c r="B132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>204</v>
-      </c>
-      <c r="K133">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="B130">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>218</v>
+      </c>
+      <c r="E131" s="18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>224</v>
+      </c>
+      <c r="E132" s="17">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>232</v>
+      </c>
+      <c r="E133" s="18">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>207</v>
-      </c>
-      <c r="E134" s="18">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="E134" s="17">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>210</v>
-      </c>
-      <c r="E135" s="17">
-        <v>255.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>211</v>
-      </c>
-      <c r="B136">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>218</v>
-      </c>
-      <c r="B137">
-        <v>79.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
-        <v>218</v>
-      </c>
-      <c r="E138" s="18">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
-        <v>224</v>
-      </c>
-      <c r="E139" s="17">
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
-        <v>232</v>
-      </c>
-      <c r="E140" s="18">
-        <v>130.1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
-        <v>239</v>
-      </c>
-      <c r="E141" s="17">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
         <v>245</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E135" s="20">
         <v>182.4</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
         <v>252</v>
       </c>
-      <c r="E143" s="22">
+      <c r="E136" s="22">
         <v>148.9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
         <v>259</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E137" s="20">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K153" xr:uid="{03FD80DC-1E84-49BD-AF5A-0A214B2F866A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K144">
-      <sortCondition ref="A1:A153"/>
+  <autoFilter ref="A1:K146" xr:uid="{03FD80DC-1E84-49BD-AF5A-0A214B2F866A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K137">
+      <sortCondition ref="A1:A146"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140BB59-233E-41C1-ABA0-4FF3A6ED7AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12596B27-4BB4-4B12-917C-AF3AAE0F92AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{605BCDCA-EFC2-4ECE-A6BC-485C2250009B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -9432,6 +9432,4536 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001D-B355-4E4A-8DEA-B5A3DABB9A3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="914786256"/>
+        <c:axId val="868012480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="914786256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="868012480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="868012480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914786256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1283928491989348E-2"/>
+          <c:y val="0.16441054018855861"/>
+          <c:w val="0.74377279111297534"/>
+          <c:h val="0.67717574275130099"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BBF M. edulis 1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$173:$C$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$173:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BBF M. edulis 2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$188:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$188:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PP M. edulis</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$194:$C$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$194:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BBE A. ater 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Feuil1!$D$2:$D$29,Feuil1!$D$55:$D$220)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="194"/>
+                <c:pt idx="0">
+                  <c:v>143.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1370.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2869.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1417.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4297.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1391.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2041.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>770.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>758.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>375.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>434.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>195.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>185.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>264.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>259.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>208.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1127.095</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2495.7109999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3903.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2276.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1561.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>878.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>626.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>636.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>848.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>859.56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1078.577</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>833.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>500.93100000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>390.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>481.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>297.63099999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>313.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>212.24499999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>147.63</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>93.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>143.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>133.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>87.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1768.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BBE A. ater 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$30:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$30:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>138.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1878.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2305.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>333.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>481.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>156.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>520.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>472.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219.56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>308.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1127.095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2495.7109999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3903.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2276.96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1561.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>878.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>626.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>636.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>848.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>859.56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1078.577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>833.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>500.93100000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>481.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>297.63099999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>313.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>212.24499999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>250.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>147.63</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>143.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>133.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1768.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>BBE A. ater 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$55:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$55:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="166"/>
+                <c:pt idx="0">
+                  <c:v>145.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1127.095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2495.7109999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3903.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2276.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1561.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>878.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>626.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>636.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>848.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>859.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1078.577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>833.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500.93100000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>390.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>481.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>297.63099999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>313.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212.24499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>143.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.890999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1768.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>BBE M. edulis 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$118:$C$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$118:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1768.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>BBE M. edulis 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$139:$C$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$139:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1768.7099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>BBE M. edulis 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$161:$C$172</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$161:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>424.48999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>438.31499999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>BBF M. edulis 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$173:$C$187</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$173:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>BBF M. edulis 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$188:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$188:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>113.44100000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C683-43D6-8871-2299648F543B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>PP M. edulis</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$194:$C$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$194:$D$220</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>186.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C683-43D6-8871-2299648F543B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10830,6 +15360,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19EDB9-A623-44D6-A713-6C3693BEE5D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11132,7 +15700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479CB694-5EFC-4769-B19F-BC6AA16ADAF6}">
   <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView topLeftCell="C178" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -20395,8 +24963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7699A9F-2341-4C32-B267-5F1713B4CF13}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20622,11 +25190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32071F3A-A3AA-4E75-B884-8526B8F67CCF}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K126" sqref="K126"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22023,7 +26591,7 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>

--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7215846E-AAEA-4ECE-B932-61F01D9C5BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E9ABDB-9F40-488D-AB3D-7679CCCD56A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,94 +563,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$2:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>218</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -658,587 +570,419 @@
               <c:f>(Feuil1!$F$2:$F$29,Feuil1!$F$55:$F$220)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="194"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>143.63999999999999</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>238.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>495.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1370.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2869.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1417.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4297.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1391.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2041.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>770.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>375.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>337.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>434.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>347.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>195.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>169.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>185.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>264.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>259.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>97.6</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>108.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.7</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.2</c:v>
+                  <c:v>116.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145.9</c:v>
+                  <c:v>128.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>125.23</c:v>
+                  <c:v>125.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1127.095</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>343.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3903.36</c:v>
+                  <c:v>439.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2276.96</c:v>
+                  <c:v>452.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>711.3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1237.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>642.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>638.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>859.56</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1078.577</c:v>
+                  <c:v>170.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>50.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>113.441</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>109.782</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>282.99400000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>97.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>90.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>120.354</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>424.49</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>438.315</c:v>
                 </c:pt>
-                <c:pt idx="171">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="133">
                   <c:v>325.27999999999997</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="134">
                   <c:v>219.56399999999999</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="135">
                   <c:v>187.85</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="136">
                   <c:v>106.123</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="137">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -1299,85 +1043,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$30:$E$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>172</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -1385,578 +1050,419 @@
               <c:f>Feuil1!$F$30:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>138.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
                   <c:v>130.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>162.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>243.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1878.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2305.42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>333.41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>361.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481.35</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>156.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>520.45000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>472.02</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>390.34</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>255.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>219.56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>308.56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125.23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1127.095</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2495.7109999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3903.36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2276.96</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1561.3440000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.25599999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>626.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>636.73599999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>848.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>859.56</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1078.577</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>833.78499999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>500.93099999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>390.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>481.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>297.63099999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>313.08199999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>62</c:v>
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>364.49</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="190">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -2017,94 +1523,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$55:$E$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>193</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -2112,503 +1530,419 @@
               <c:f>Feuil1!$F$55:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>145.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.23</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1127.095</c:v>
+                  <c:v>215.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>120.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3903.36</c:v>
+                  <c:v>878.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2276.96</c:v>
+                  <c:v>2689.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>365.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>756.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1736.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>3243.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>3132.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>859.56</c:v>
+                  <c:v>4511.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1078.577</c:v>
+                  <c:v>1741.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>1896.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>579.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>723.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>204.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>187.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>191.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1805.3</c:v>
-                </c:pt>
                 <c:pt idx="119">
-                  <c:v>933.55</c:v>
+                  <c:v>180.53</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>357.69</c:v>
+                  <c:v>187.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>890</c:v>
+                  <c:v>120.354</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>313.08</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>165.3</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>273.99</c:v>
+                  <c:v>100.024</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>365.94</c:v>
+                  <c:v>61.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>390.34</c:v>
+                  <c:v>111.62</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>359.1</c:v>
+                  <c:v>424.49</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>191.52</c:v>
+                  <c:v>421.238</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>100.02</c:v>
+                  <c:v>893.3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>91.29</c:v>
+                  <c:v>588.92399999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>55.97</c:v>
+                  <c:v>611.12</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>120.354</c:v>
+                  <c:v>438.315</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>424.49</c:v>
+                  <c:v>325.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1536.9480000000001</c:v>
+                  <c:v>219.56399999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2843.3539999999998</c:v>
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1768.71</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="165">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -5376,94 +4710,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$2:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>218</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -5471,587 +4717,419 @@
               <c:f>(Feuil1!$F$2:$F$29,Feuil1!$F$55:$F$220)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="194"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>143.63999999999999</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>238.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>495.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1370.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2869.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1417.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4297.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1391.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2041.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>770.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>375.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>337.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>434.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>347.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>195.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>169.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>185.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>264.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>259.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>97.6</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>108.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.7</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.2</c:v>
+                  <c:v>116.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145.9</c:v>
+                  <c:v>128.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>125.23</c:v>
+                  <c:v>125.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1127.095</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>343.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3903.36</c:v>
+                  <c:v>439.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2276.96</c:v>
+                  <c:v>452.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>711.3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1237.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>642.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>638.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>859.56</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1078.577</c:v>
+                  <c:v>170.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>50.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>113.441</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>109.782</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>282.99400000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>97.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>90.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>120.354</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>424.49</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>438.315</c:v>
                 </c:pt>
-                <c:pt idx="171">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="133">
                   <c:v>325.27999999999997</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="134">
                   <c:v>219.56399999999999</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="135">
                   <c:v>187.85</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="136">
                   <c:v>106.123</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="137">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -6112,85 +5190,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$30:$E$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>172</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -6198,578 +5197,419 @@
               <c:f>Feuil1!$F$30:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>138.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
                   <c:v>130.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>162.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>243.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1878.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2305.42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>333.41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>361.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481.35</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>156.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>520.45000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>472.02</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>390.34</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>255.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>219.56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>308.56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125.23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1127.095</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2495.7109999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3903.36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2276.96</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1561.3440000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.25599999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>626.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>636.73599999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>848.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>859.56</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1078.577</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>833.78499999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>500.93099999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>390.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>481.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>297.63099999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>313.08199999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>62</c:v>
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>364.49</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="190">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -6830,94 +5670,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$55:$E$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>193</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -6925,503 +5677,419 @@
               <c:f>Feuil1!$F$55:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>145.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.23</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1127.095</c:v>
+                  <c:v>215.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>120.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3903.36</c:v>
+                  <c:v>878.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2276.96</c:v>
+                  <c:v>2689.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>365.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>756.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1736.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>3243.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>3132.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>859.56</c:v>
+                  <c:v>4511.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1078.577</c:v>
+                  <c:v>1741.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>1896.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>579.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>723.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>204.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>187.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>191.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1805.3</c:v>
-                </c:pt>
                 <c:pt idx="119">
-                  <c:v>933.55</c:v>
+                  <c:v>180.53</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>357.69</c:v>
+                  <c:v>187.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>890</c:v>
+                  <c:v>120.354</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>313.08</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>165.3</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>273.99</c:v>
+                  <c:v>100.024</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>365.94</c:v>
+                  <c:v>61.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>390.34</c:v>
+                  <c:v>111.62</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>359.1</c:v>
+                  <c:v>424.49</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>191.52</c:v>
+                  <c:v>421.238</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>100.02</c:v>
+                  <c:v>893.3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>91.29</c:v>
+                  <c:v>588.92399999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>55.97</c:v>
+                  <c:v>611.12</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>120.354</c:v>
+                  <c:v>438.315</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>424.49</c:v>
+                  <c:v>325.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1536.9480000000001</c:v>
+                  <c:v>219.56399999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2843.3539999999998</c:v>
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1768.71</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="165">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -10701,94 +9369,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$2:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>218</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -10796,587 +9376,419 @@
               <c:f>(Feuil1!$F$2:$F$29,Feuil1!$F$55:$F$220)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="194"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>143.63999999999999</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>238.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>495.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1370.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2361</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2869.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1417.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4297.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1391.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2041.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>770.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>375.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>337.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>434.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>347.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>195.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>169.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>185.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>264.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>259.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>97.6</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>108.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.7</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.2</c:v>
+                  <c:v>116.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145.9</c:v>
+                  <c:v>128.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>125.23</c:v>
+                  <c:v>125.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1127.095</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>343.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3903.36</c:v>
+                  <c:v>439.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2276.96</c:v>
+                  <c:v>452.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>711.3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1237.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>642.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>638.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>859.56</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1078.577</c:v>
+                  <c:v>170.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>50.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>113.441</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>109.782</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>282.99400000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>97.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>90.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>120.354</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>424.49</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>438.315</c:v>
                 </c:pt>
-                <c:pt idx="171">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="133">
                   <c:v>325.27999999999997</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="134">
                   <c:v>219.56399999999999</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="135">
                   <c:v>187.85</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="136">
                   <c:v>106.123</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="137">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -11437,85 +9849,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$30:$E$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>172</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -11523,578 +9856,419 @@
               <c:f>Feuil1!$F$30:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>138.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>878.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>365.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>756.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1736.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3243.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3132.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4511.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1741.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>579.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
                   <c:v>130.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>162.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132.05000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>177.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>123.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>243.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>400.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1878.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2305.42</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>333.41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>361.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>481.35</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>156.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>520.45000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>472.02</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>390.34</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>255.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>219.56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>308.56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.05</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125.23</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1127.095</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2495.7109999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3903.36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2276.96</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1561.3440000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.25599999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>626.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>636.73599999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>848.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>859.56</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1078.577</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>833.78499999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>500.93099999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>390.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>481.00799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>297.63099999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>313.08199999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="118" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="119" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="120" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="121" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="122" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="0.00">
-                  <c:v>62</c:v>
+                <c:pt idx="119">
+                  <c:v>180.53</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>187.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>101.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>100.024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.445999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.62</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>421.238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>893.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>588.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>611.12</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>325.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>219.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>364.49</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1805.3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>933.55</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>357.69</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>313.08</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>165.3</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>273.99</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>365.94</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>390.34</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>191.52</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>100.02</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>91.29</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1536.9480000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2843.3539999999998</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1768.71</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="190">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -12155,94 +10329,6 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$55:$E$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>193</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
@@ -12250,503 +10336,419 @@
               <c:f>Feuil1!$F$55:$F$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="166"/>
+                <c:ptCount val="138"/>
                 <c:pt idx="0">
-                  <c:v>145.9</c:v>
+                  <c:v>186.96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.23</c:v>
+                  <c:v>182.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1127.095</c:v>
+                  <c:v>215.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2495.7109999999998</c:v>
+                  <c:v>120.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3903.36</c:v>
+                  <c:v>878.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2276.96</c:v>
+                  <c:v>2689.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1561.3440000000001</c:v>
+                  <c:v>365.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>878.25599999999997</c:v>
+                  <c:v>756.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>626.16399999999999</c:v>
+                  <c:v>1736.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>636.73599999999999</c:v>
+                  <c:v>3243.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>848.98099999999999</c:v>
+                  <c:v>3132.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>859.56</c:v>
+                  <c:v>4511.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1078.577</c:v>
+                  <c:v>1741.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>833.78499999999997</c:v>
+                  <c:v>1896.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>500.93099999999998</c:v>
+                  <c:v>579.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>390.33600000000001</c:v>
+                  <c:v>723.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>481.00799999999998</c:v>
+                  <c:v>204.3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.63099999999997</c:v>
+                  <c:v>187.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>313.08199999999999</c:v>
+                  <c:v>191.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>187.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>108.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>452.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1237.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>642.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.782</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>97.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.055999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>264.58</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>695.4</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>1033.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>615.6</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>1650.4</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>1839.5</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00">
+                  <c:v>2195.6</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>894.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>1425.9</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>2589.1</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>4290.5</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>4524.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00">
+                  <c:v>1790.6</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>1920.7</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>1073.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00">
+                  <c:v>727.9</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>352.9</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>276.5</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>255.6</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>212.3</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>182.4</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>148.9</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>330.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>271.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>195.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>626.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2927.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1805.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>933.55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>357.69</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>313.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>165.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>273.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>365.94</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>390.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>359.1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>191.52</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.02</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>120.354</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>424.49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1536.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2843.3539999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1768.71</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1203.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>384.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>203.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>818.48599999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>438.315</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>521.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>397.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>453.76600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>266.73</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>212.245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>250.46600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>147.63</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>93.935000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>143.25200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>133.36500000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>87.215999999999994</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>186.96</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>215.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>120.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>878.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2689.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>365.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>756.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1736.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3243.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3132.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4511.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1741.6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1896.9</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>579.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>723.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>204.3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>187.8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>75.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>116.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>128.9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>343.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>439.1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>452.1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>711.3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1237.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>642.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>638.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>126.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>170.3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>113.441</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>109.782</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>282.99400000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>97.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90.265000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>65.055999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00">
-                  <c:v>264.58</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="0.00">
-                  <c:v>695.4</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="0.00">
-                  <c:v>1033.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="0.00">
-                  <c:v>615.6</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="0.00">
-                  <c:v>1650.4</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="0.00">
-                  <c:v>1839.5</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="0.00">
-                  <c:v>2195.6</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="0.00">
-                  <c:v>894.2</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="0.00">
-                  <c:v>1425.9</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="0.00">
-                  <c:v>2120.4</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="0.00">
-                  <c:v>2589.1</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="0.00">
-                  <c:v>4290.5</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="0.00">
-                  <c:v>4628</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="0.00">
-                  <c:v>5601</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="0.00">
-                  <c:v>4524.6000000000004</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="0.00">
-                  <c:v>3591</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="0.00">
-                  <c:v>1790.6</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="0.00">
-                  <c:v>1920.7</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="0.00">
-                  <c:v>1073.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="0.00">
-                  <c:v>727.9</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="0.00">
-                  <c:v>352.9</c:v>
-                </c:pt>
-                <c:pt idx="97" formatCode="0.00">
-                  <c:v>377.1</c:v>
-                </c:pt>
-                <c:pt idx="98" formatCode="0.00">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="99" formatCode="0.00">
-                  <c:v>276.5</c:v>
-                </c:pt>
-                <c:pt idx="100" formatCode="0.00">
-                  <c:v>224.7</c:v>
-                </c:pt>
-                <c:pt idx="101" formatCode="0.00">
-                  <c:v>348.1</c:v>
-                </c:pt>
-                <c:pt idx="102" formatCode="0.00">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="103" formatCode="0.00">
-                  <c:v>255.6</c:v>
-                </c:pt>
-                <c:pt idx="104" formatCode="0.00">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="105" formatCode="0.00">
-                  <c:v>212.3</c:v>
-                </c:pt>
-                <c:pt idx="106" formatCode="0.00">
-                  <c:v>130.1</c:v>
-                </c:pt>
-                <c:pt idx="107" formatCode="0.00">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="0.00">
-                  <c:v>182.4</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="0.00">
-                  <c:v>148.9</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="0.00">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>364.49</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>330.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>271.7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>178.19</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>195.17</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>626.16</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2927.52</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1805.3</c:v>
-                </c:pt>
                 <c:pt idx="119">
-                  <c:v>933.55</c:v>
+                  <c:v>180.53</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>357.69</c:v>
+                  <c:v>187.84899999999999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>890</c:v>
+                  <c:v>120.354</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>313.08</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>165.3</c:v>
+                  <c:v>101.85299999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>273.99</c:v>
+                  <c:v>100.024</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>365.94</c:v>
+                  <c:v>61.445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>390.34</c:v>
+                  <c:v>111.62</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>359.1</c:v>
+                  <c:v>424.49</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>191.52</c:v>
+                  <c:v>421.238</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>100.02</c:v>
+                  <c:v>893.3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>91.29</c:v>
+                  <c:v>588.92399999999998</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>55.97</c:v>
+                  <c:v>611.12</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>120.354</c:v>
+                  <c:v>438.315</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>424.49</c:v>
+                  <c:v>325.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1536.9480000000001</c:v>
+                  <c:v>219.56399999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2843.3539999999998</c:v>
+                  <c:v>187.85</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1768.71</c:v>
+                  <c:v>106.123</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1203.5360000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>384.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>203.70699999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>337.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>818.48599999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>521.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>397.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>453.76600000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>266.73</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>180.53</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>187.84899999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>120.354</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>101.85299999999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>100.024</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>61.445999999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>111.62</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>424.49</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>421.238</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>893.3</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>588.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>611.12</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>438.315</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>325.27999999999997</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>219.56399999999999</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>187.85</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>106.123</c:v>
-                </c:pt>
-                <c:pt idx="165">
                   <c:v>58.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -15134,9 +13136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -15176,7 +13179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15203,7 +13206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15230,7 +13233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15257,7 +13260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15284,7 +13287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15311,7 +13314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -15340,7 +13343,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -15369,7 +13372,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -15398,7 +13401,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -15427,7 +13430,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -15454,7 +13457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -15481,7 +13484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -15508,7 +13511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -15535,7 +13538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -15562,7 +13565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -15589,7 +13592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -15616,7 +13619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -15643,7 +13646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -15670,7 +13673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -15697,7 +13700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -15724,7 +13727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -15751,7 +13754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -15778,7 +13781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -15805,7 +13808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -15832,7 +13835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15859,7 +13862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -15886,7 +13889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -15913,7 +13916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -15940,7 +13943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -15967,7 +13970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -15994,7 +13997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -16021,7 +14024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -16048,7 +14051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -16075,7 +14078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -16102,7 +14105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -16129,7 +14132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -16156,7 +14159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -16183,7 +14186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -16210,7 +14213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -16237,7 +14240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -16264,7 +14267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -16291,7 +14294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -16318,7 +14321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -16345,7 +14348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -16372,7 +14375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -16399,7 +14402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -16426,7 +14429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -16453,7 +14456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -16480,7 +14483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -16507,7 +14510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -16534,7 +14537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -16561,7 +14564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -16588,7 +14591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -16615,7 +14618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -16642,7 +14645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -16669,7 +14672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -16696,7 +14699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -16723,7 +14726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -16750,7 +14753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -16777,7 +14780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -16804,7 +14807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -16831,7 +14834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -16858,7 +14861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -16885,7 +14888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -16912,7 +14915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -16939,7 +14942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -16966,7 +14969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -16993,7 +14996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -17020,7 +15023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -17047,7 +15050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -17074,7 +15077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -17101,7 +15104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -17128,7 +15131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -17155,7 +15158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -17182,7 +15185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -17209,7 +15212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -17236,7 +15239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -17263,7 +15266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -17290,7 +15293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -17317,7 +15320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -17344,7 +15347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -21097,7 +19100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -21123,7 +19126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -21149,7 +19152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -21175,7 +19178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>5</v>
       </c>
@@ -21201,7 +19204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>5</v>
       </c>
@@ -21333,6 +19336,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H255" xr:uid="{977A4A87-8996-4A05-ABDE-5392B5E13973}">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="M. edulis"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:H220">
       <sortCondition descending="1" ref="G1:G255"/>
     </sortState>

--- a/Data/DETOX-filtrado.xlsx
+++ b/Data/DETOX-filtrado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\FANS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82B774-420E-47C3-96B0-7AFEC42F18E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4732739-75FA-4C66-8287-0CA7D26A097F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15136,7 +15136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -25978,7 +25978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
